--- a/Doc/2.UI/テーブル定義.xlsx
+++ b/Doc/2.UI/テーブル定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="4245" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
+    <workbookView xWindow="2370" yWindow="5445" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧 " sheetId="317" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -430,16 +430,6 @@
     <t>その他</t>
   </si>
   <si>
-    <t>「経理DB」で使用</t>
-    <rPh sb="1" eb="3">
-      <t>ケイリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●</t>
   </si>
   <si>
@@ -473,10 +463,6 @@
   </si>
   <si>
     <t>仕訳日付</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>伝票種類</t>
@@ -703,6 +689,14 @@
   </si>
   <si>
     <t>Money</t>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1413,39 +1407,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1466,6 +1427,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -25263,7 +25257,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F26" sqref="F26"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25324,11 +25318,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1">
@@ -25337,11 +25331,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1">
@@ -25350,11 +25344,11 @@
         <v>3</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1">
@@ -25363,11 +25357,11 @@
         <v>4</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1">
@@ -25376,11 +25370,11 @@
         <v>5</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1">
@@ -25389,7 +25383,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -25400,7 +25394,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -25411,7 +25405,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
@@ -25422,7 +25416,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
@@ -25655,80 +25649,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属部テーブル財務システム用</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -25741,18 +25735,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -25762,7 +25756,9 @@
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="E11" s="54" t="s">
+        <v>134</v>
+      </c>
       <c r="F11" s="55" t="s">
         <v>35</v>
       </c>
@@ -25851,7 +25847,9 @@
       <c r="H14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J14" s="57"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
@@ -25875,7 +25873,9 @@
       <c r="H15" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J15" s="57"/>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
@@ -25899,7 +25899,9 @@
       <c r="H16" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="57"/>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -26512,80 +26514,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務予算マスター財務システム用</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -26598,18 +26600,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -26621,11 +26623,11 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I11" s="54">
         <v>1</v>
@@ -26647,11 +26649,11 @@
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I12" s="57">
         <v>2</v>
@@ -26676,13 +26678,15 @@
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="57"/>
+        <v>101</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
@@ -26700,11 +26704,11 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="57">
         <v>3</v>
@@ -26724,13 +26728,15 @@
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>133</v>
+      </c>
       <c r="F15" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I15" s="57">
         <v>9</v>
@@ -26752,13 +26758,15 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -26776,13 +26784,15 @@
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J17" s="57"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
@@ -26802,13 +26812,15 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J18" s="57"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
@@ -26829,13 +26841,15 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59"/>
@@ -26855,13 +26869,15 @@
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J20" s="57"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -26882,13 +26898,15 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
@@ -26907,13 +26925,15 @@
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59"/>
@@ -26932,13 +26952,15 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
@@ -26957,13 +26979,15 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J24" s="57"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
@@ -26982,13 +27006,15 @@
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J25" s="57"/>
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
@@ -27007,13 +27033,15 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
@@ -27036,9 +27064,11 @@
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
@@ -27056,13 +27086,15 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
@@ -27080,13 +27112,15 @@
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
@@ -27676,82 +27710,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>給与マスター</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -27764,18 +27796,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -28500,7 +28532,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:M7"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -28551,80 +28583,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>社員マスター</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -28637,18 +28669,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -29394,80 +29426,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>給振マスター</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -29480,18 +29512,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -30289,80 +30321,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>外注費テーブル</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -30375,18 +30407,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -30397,10 +30429,10 @@
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>64</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="54" t="s">
@@ -30411,7 +30443,7 @@
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="56"/>
       <c r="M11" s="61"/>
@@ -30427,10 +30459,10 @@
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="57" t="s">
@@ -30441,7 +30473,7 @@
       </c>
       <c r="J12" s="57"/>
       <c r="K12" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="63"/>
@@ -30460,10 +30492,10 @@
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="57" t="s">
@@ -30474,7 +30506,7 @@
       </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="59"/>
       <c r="M13" s="64"/>
@@ -30490,21 +30522,21 @@
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I14" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J14" s="57"/>
       <c r="K14" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="59"/>
       <c r="M14" s="63"/>
@@ -30521,14 +30553,14 @@
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I15" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="59"/>
@@ -30547,7 +30579,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="57" t="s">
@@ -30573,13 +30605,15 @@
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="57"/>
+        <v>68</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J17" s="57"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
@@ -30599,7 +30633,7 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="57" t="s">
@@ -30628,14 +30662,14 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="85" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
@@ -30656,14 +30690,14 @@
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I20" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="59"/>
@@ -30685,14 +30719,14 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I21" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
@@ -30712,14 +30746,14 @@
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
@@ -30739,14 +30773,14 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>69</v>
-      </c>
-      <c r="I23" s="85" t="s">
-        <v>70</v>
       </c>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
@@ -30766,7 +30800,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="57" t="s">
@@ -30793,7 +30827,7 @@
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="57" t="s">
@@ -30820,7 +30854,7 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="57" t="s">
@@ -30847,7 +30881,7 @@
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="57" t="s">
@@ -30873,7 +30907,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="57" t="s">
@@ -30901,7 +30935,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="57" t="s">
@@ -30912,7 +30946,7 @@
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="59"/>
       <c r="M29" s="63"/>
@@ -30929,7 +30963,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="57" t="s">
@@ -30955,7 +30989,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="57" t="s">
@@ -30981,7 +31015,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="59"/>
       <c r="H32" s="57" t="s">
@@ -31007,7 +31041,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" s="59"/>
       <c r="H33" s="57" t="s">
@@ -31033,14 +31067,14 @@
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="59"/>
       <c r="H34" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="85" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="59"/>
@@ -31059,14 +31093,14 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="85" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="59"/>
@@ -31085,7 +31119,7 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="57" t="s">
@@ -31111,7 +31145,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G37" s="59"/>
       <c r="H37" s="57" t="s">
@@ -31137,7 +31171,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="57" t="s">
@@ -31163,7 +31197,7 @@
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="57" t="s">
@@ -31184,126 +31218,126 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="75">
         <v>30</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="76"/>
     </row>
     <row r="41" spans="1:15" s="49" customFormat="1">
       <c r="A41" s="62">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="86">
+      <c r="I41" s="75">
         <v>1</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="87"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="1:15" s="49" customFormat="1">
       <c r="A42" s="62">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="86"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="75"/>
       <c r="H42" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="87"/>
+        <v>91</v>
+      </c>
+      <c r="I42" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="1:15" s="49" customFormat="1">
       <c r="A43" s="62">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="87"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="1:15" s="49" customFormat="1">
       <c r="A44" s="62">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="87"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="76"/>
     </row>
     <row r="45" spans="1:15" s="49" customFormat="1" ht="12.75" thickBot="1">
       <c r="A45" s="65">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="80"/>
     </row>
     <row r="46" spans="1:15" s="49" customFormat="1"/>
     <row r="47" spans="1:15" s="49" customFormat="1"/>
@@ -31434,82 +31468,82 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務伝票テーブル前期分</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -31522,18 +31556,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -31544,10 +31578,10 @@
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>64</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="54" t="s">
@@ -31558,7 +31592,7 @@
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="56"/>
       <c r="M11" s="61"/>
@@ -31574,10 +31608,10 @@
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="57" t="s">
@@ -31588,7 +31622,7 @@
       </c>
       <c r="J12" s="57"/>
       <c r="K12" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="63"/>
@@ -31607,10 +31641,10 @@
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="57" t="s">
@@ -31621,7 +31655,7 @@
       </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="59"/>
       <c r="M13" s="64"/>
@@ -31637,21 +31671,21 @@
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J14" s="57"/>
       <c r="K14" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="59"/>
       <c r="M14" s="63"/>
@@ -31668,14 +31702,14 @@
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="59"/>
@@ -31694,7 +31728,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="57" t="s">
@@ -31720,13 +31754,15 @@
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="57"/>
+        <v>101</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J17" s="57"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
@@ -31746,7 +31782,7 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="57" t="s">
@@ -31775,14 +31811,14 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="85" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
@@ -31803,14 +31839,14 @@
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="59"/>
@@ -31832,14 +31868,14 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
@@ -31859,14 +31895,14 @@
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
@@ -31886,14 +31922,14 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="85" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
@@ -31913,7 +31949,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="57" t="s">
@@ -31940,7 +31976,7 @@
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="57" t="s">
@@ -31967,7 +32003,7 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="57" t="s">
@@ -31994,7 +32030,7 @@
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="57" t="s">
@@ -32020,7 +32056,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="57" t="s">
@@ -32045,10 +32081,10 @@
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="57" t="s">
@@ -32059,7 +32095,7 @@
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="59"/>
       <c r="M29" s="63"/>
@@ -32076,7 +32112,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="57" t="s">
@@ -32102,7 +32138,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="57" t="s">
@@ -32128,7 +32164,7 @@
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="59"/>
       <c r="H32" s="57" t="s">
@@ -32154,7 +32190,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G33" s="59"/>
       <c r="H33" s="57" t="s">
@@ -32180,14 +32216,14 @@
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" s="59"/>
       <c r="H34" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="85" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="59"/>
@@ -32206,14 +32242,14 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="85" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="59"/>
@@ -32232,7 +32268,7 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="57" t="s">
@@ -32258,7 +32294,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G37" s="59"/>
       <c r="H37" s="57" t="s">
@@ -32284,7 +32320,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="57" t="s">
@@ -32310,7 +32346,7 @@
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="57" t="s">
@@ -32331,126 +32367,126 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="75">
         <v>30</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="76"/>
     </row>
     <row r="41" spans="1:15" s="49" customFormat="1">
       <c r="A41" s="62">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="86">
+      <c r="I41" s="75">
         <v>1</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="87"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="1:15" s="49" customFormat="1">
       <c r="A42" s="62">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="86"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="75"/>
       <c r="H42" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="87"/>
+        <v>91</v>
+      </c>
+      <c r="I42" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="1:15" s="49" customFormat="1">
       <c r="A43" s="62">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="87"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="1:15" s="49" customFormat="1">
       <c r="A44" s="62">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="87"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="76"/>
     </row>
     <row r="45" spans="1:15" s="49" customFormat="1" ht="12.75" thickBot="1">
       <c r="A45" s="65">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="80"/>
     </row>
     <row r="46" spans="1:15" s="49" customFormat="1"/>
     <row r="47" spans="1:15" s="49" customFormat="1"/>
@@ -32531,7 +32567,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M11" sqref="M11"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -32582,80 +32618,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属課テーブル財務システム用</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -32668,18 +32704,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -32754,7 +32790,9 @@
       <c r="H13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
@@ -33421,80 +33459,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="81" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属店テーブル財務システム用</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="82"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -33507,18 +33545,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -33593,7 +33631,9 @@
       <c r="H13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>

--- a/Doc/2.UI/テーブル定義.xlsx
+++ b/Doc/2.UI/テーブル定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="5445" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
+    <workbookView xWindow="2370" yWindow="6045" windowWidth="17490" windowHeight="12495" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧 " sheetId="317" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="所属店テーブル財務システム用" sheetId="358" r:id="rId9"/>
     <sheet name="所属部テーブル財務システム用" sheetId="359" r:id="rId10"/>
     <sheet name="業務予算マスター財務システム用" sheetId="365" r:id="rId11"/>
+    <sheet name="中京Cデータ税込" sheetId="366" r:id="rId12"/>
+    <sheet name="中京Cデータ税込BK" sheetId="367" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'テーブル一覧 '!$A:$D</definedName>
@@ -30,6 +32,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">所属課テーブル財務システム用!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">所属店テーブル財務システム用!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">所属部テーブル財務システム用!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">中京Cデータ税込!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">中京Cデータ税込BK!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$D$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">外注費テーブル!$6:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">給振マスター!$6:$10</definedName>
@@ -40,13 +44,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="7">所属課テーブル財務システム用!$6:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">所属店テーブル財務システム用!$6:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">所属部テーブル財務システム用!$6:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">中京Cデータ税込!$6:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">中京Cデータ税込BK!$6:$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="167">
   <si>
     <t>No</t>
   </si>
@@ -698,6 +704,187 @@
     <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>納品日</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書番号</t>
+    <rPh sb="0" eb="5">
+      <t>ノウヒンショバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税抜金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイヌキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業番</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細目</t>
+    <rPh sb="0" eb="2">
+      <t>サイモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客担当</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクタントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務区分コード</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施工部コード</t>
+    <rPh sb="0" eb="3">
+      <t>セコウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施工課コード</t>
+    <rPh sb="0" eb="3">
+      <t>セコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品日指定</t>
+    <rPh sb="0" eb="5">
+      <t>ノウヒンビシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税込金額</t>
+    <rPh sb="0" eb="4">
+      <t>ゼイコミキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Errナンバー1</t>
+  </si>
+  <si>
+    <t>Errナンバー2</t>
+  </si>
+  <si>
+    <t>Errナンバー3</t>
+  </si>
+  <si>
+    <t>Errナンバー4</t>
+  </si>
+  <si>
+    <t>Errナンバー5</t>
+  </si>
+  <si>
+    <t>Errナンバー6</t>
+  </si>
+  <si>
+    <t>Errナンバー7</t>
+  </si>
+  <si>
+    <t>Errナンバー8</t>
+  </si>
+  <si>
+    <t>Errナンバー9</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引先コード</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計上日</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約番号</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中京Cデータ税込</t>
+  </si>
+  <si>
+    <t>中京Cデータ税込BK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「支払承認内訳システム」で使用</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1399,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1428,14 +1615,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,6 +1641,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7639,6 +7832,4506 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 132"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="9915525" cy="400050"/>
+          <a:chOff x="0" y="15"/>
+          <a:chExt cx="1041" cy="42"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Text Box 133"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="15"/>
+            <a:ext cx="217" cy="42"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル定義</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Text Box 134"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="217" y="15"/>
+            <a:ext cx="255" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>システム名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Text Box 135"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="217" y="36"/>
+            <a:ext cx="255" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Text Box 136"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="472" y="15"/>
+            <a:ext cx="320" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>機能名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Text Box 137"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="472" y="36"/>
+            <a:ext cx="320" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>施行情報システム</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Text Box 138"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="875" y="15"/>
+            <a:ext cx="78" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>承認者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Text Box 139"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="953" y="15"/>
+            <a:ext cx="88" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Text Box 140"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="792" y="36"/>
+            <a:ext cx="83" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>TPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Text Box 141"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="875" y="36"/>
+            <a:ext cx="78" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Text Box 142"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="953" y="36"/>
+            <a:ext cx="88" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>/01/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Text Box 143"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="792" y="15"/>
+            <a:ext cx="83" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 100"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9953625" cy="0"/>
+          <a:chOff x="0" y="1"/>
+          <a:chExt cx="1042" cy="57"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 101"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="1"/>
+            <a:ext cx="181" cy="57"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>テーブル定義</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 102"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="181" y="1"/>
+            <a:ext cx="164" cy="57"/>
+            <a:chOff x="181" y="596"/>
+            <a:chExt cx="215" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Text Box 103"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="596"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>システム</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Text Box 104"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="612"/>
+              <a:ext cx="215" cy="25"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>交通反則事務管理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="Text Box 105"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="637"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>ID：MDA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 106"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="345" y="1"/>
+            <a:ext cx="164" cy="57"/>
+            <a:chOff x="181" y="596"/>
+            <a:chExt cx="215" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Text Box 107"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="596"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>サブシステム</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Text Box 108"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="612"/>
+              <a:ext cx="215" cy="25"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Text Box 109"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="637"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>ID：</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 110"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="509" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Text Box 111"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>年　月　日</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Text Box 112"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>2005/08/0aa</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Group 113"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="589" y="1"/>
+            <a:ext cx="62" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Text Box 114"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Text Box 115"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 116"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="731" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="Text Box 117"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>査閲</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Text Box 118"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="Group 119"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="651" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Text Box 120"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>承認</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Text Box 121"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 122"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="811" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Text Box 123"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>担当</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Text Box 124"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Group 125"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="891" y="1"/>
+            <a:ext cx="151" cy="57"/>
+            <a:chOff x="891" y="1"/>
+            <a:chExt cx="151" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 126"/>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="891" y="29"/>
+              <a:ext cx="151" cy="29"/>
+              <a:chOff x="891" y="29"/>
+              <a:chExt cx="151" cy="29"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Text Box 127"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="29"/>
+                <a:ext cx="151" cy="29"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>NEC渡辺</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="Text Box 128"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="29"/>
+                <a:ext cx="47" cy="16"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>作成者</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 129"/>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="891" y="1"/>
+              <a:ext cx="151" cy="28"/>
+              <a:chOff x="891" y="1"/>
+              <a:chExt cx="151" cy="28"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="Text Box 130"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="1"/>
+                <a:ext cx="151" cy="28"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Text Box 131"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="1"/>
+                <a:ext cx="63" cy="16"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>登録番号</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 132"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="9915525" cy="400050"/>
+          <a:chOff x="0" y="15"/>
+          <a:chExt cx="1041" cy="42"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Text Box 133"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="15"/>
+            <a:ext cx="217" cy="42"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル定義</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Text Box 134"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="217" y="15"/>
+            <a:ext cx="255" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>システム名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Text Box 135"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="217" y="36"/>
+            <a:ext cx="255" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Text Box 136"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="472" y="15"/>
+            <a:ext cx="320" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>機能名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Text Box 137"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="472" y="36"/>
+            <a:ext cx="320" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>施行情報システム</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Text Box 138"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="875" y="15"/>
+            <a:ext cx="78" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>承認者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Text Box 139"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="953" y="15"/>
+            <a:ext cx="88" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Text Box 140"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="792" y="36"/>
+            <a:ext cx="83" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>TPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Text Box 141"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="875" y="36"/>
+            <a:ext cx="78" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Text Box 142"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="953" y="36"/>
+            <a:ext cx="88" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>/01/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Text Box 143"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="792" y="15"/>
+            <a:ext cx="83" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="00CC99"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 100"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9953625" cy="0"/>
+          <a:chOff x="0" y="1"/>
+          <a:chExt cx="1042" cy="57"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 101"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="1"/>
+            <a:ext cx="181" cy="57"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="808080"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>テーブル定義</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 102"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="181" y="1"/>
+            <a:ext cx="164" cy="57"/>
+            <a:chOff x="181" y="596"/>
+            <a:chExt cx="215" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Text Box 103"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="596"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>システム</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Text Box 104"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="612"/>
+              <a:ext cx="215" cy="25"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>交通反則事務管理</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="Text Box 105"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="637"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>ID：MDA</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 106"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="345" y="1"/>
+            <a:ext cx="164" cy="57"/>
+            <a:chOff x="181" y="596"/>
+            <a:chExt cx="215" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Text Box 107"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="596"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>サブシステム</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Text Box 108"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="612"/>
+              <a:ext cx="215" cy="25"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Text Box 109"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="181" y="637"/>
+              <a:ext cx="215" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>ID：</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 110"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="509" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Text Box 111"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>年　月　日</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Text Box 112"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>2005/08/0aa</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>8</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Group 113"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="589" y="1"/>
+            <a:ext cx="62" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Text Box 114"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Text Box 115"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 116"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="731" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="Text Box 117"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>査閲</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Text Box 118"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="Group 119"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="651" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Text Box 120"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>承認</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Text Box 121"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 122"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="811" y="1"/>
+            <a:ext cx="80" cy="57"/>
+            <a:chOff x="509" y="596"/>
+            <a:chExt cx="80" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Text Box 123"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="596"/>
+              <a:ext cx="80" cy="16"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ ゴシック"/>
+                  <a:ea typeface="ＭＳ ゴシック"/>
+                </a:rPr>
+                <a:t>担当</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Text Box 124"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="509" y="612"/>
+              <a:ext cx="80" cy="41"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="00CC99"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Group 125"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="891" y="1"/>
+            <a:ext cx="151" cy="57"/>
+            <a:chOff x="891" y="1"/>
+            <a:chExt cx="151" cy="57"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 126"/>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="891" y="29"/>
+              <a:ext cx="151" cy="29"/>
+              <a:chOff x="891" y="29"/>
+              <a:chExt cx="151" cy="29"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Text Box 127"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="29"/>
+                <a:ext cx="151" cy="29"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>NEC渡辺</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="Text Box 128"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="29"/>
+                <a:ext cx="47" cy="16"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>作成者</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 129"/>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="891" y="1"/>
+              <a:ext cx="151" cy="28"/>
+              <a:chOff x="891" y="1"/>
+              <a:chExt cx="151" cy="28"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="Text Box 130"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="1"/>
+                <a:ext cx="151" cy="28"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Text Box 131"/>
+              <xdr:cNvSpPr txBox="1">
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="891" y="1"/>
+                <a:ext cx="63" cy="16"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="00CC99"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+                <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                  <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:effectLst>
+                      <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="808080"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </a14:hiddenEffects>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ ゴシック"/>
+                    <a:ea typeface="ＭＳ ゴシック"/>
+                  </a:rPr>
+                  <a:t>登録番号</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -25422,22 +30115,30 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1">
-      <c r="A16" s="16" t="str">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B16" s="71"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>164</v>
+      </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1">
-      <c r="A17" s="16" t="str">
+      <c r="A17" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B17" s="71"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>165</v>
+      </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1">
       <c r="A18" s="16" t="str">
@@ -25583,6 +30284,8 @@
     <hyperlink ref="B13" location="所属店テーブル財務システム用!A1" display="所属店テーブル財務システム用"/>
     <hyperlink ref="B14" location="所属部テーブル財務システム用!A1" display="所属部テーブル財務システム用"/>
     <hyperlink ref="B15" location="業務予算マスター財務システム用!A1" display="業務予算マスター財務システム用"/>
+    <hyperlink ref="B16" location="中京Cデータ税込!A1" display="中京Cデータ税込"/>
+    <hyperlink ref="B17" location="中京Cデータ税込BK!A1" display="中京Cデータ税込BK"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
@@ -25649,80 +30352,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属部テーブル財務システム用</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -25735,18 +30438,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -26184,6 +30887,943 @@
       <c r="G29" s="59"/>
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="62">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="62">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="62">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+    </row>
+    <row r="34" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="62">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+    </row>
+    <row r="35" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="62">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+    </row>
+    <row r="36" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="62"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+    </row>
+    <row r="37" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="62"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+    </row>
+    <row r="38" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="62"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+    </row>
+    <row r="39" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+    </row>
+    <row r="40" spans="1:15" s="49" customFormat="1"/>
+    <row r="41" spans="1:15" s="49" customFormat="1"/>
+    <row r="42" spans="1:15" s="49" customFormat="1"/>
+    <row r="43" spans="1:15" s="49" customFormat="1"/>
+    <row r="44" spans="1:15" s="49" customFormat="1"/>
+    <row r="45" spans="1:15" s="49" customFormat="1"/>
+    <row r="46" spans="1:15" s="49" customFormat="1"/>
+    <row r="47" spans="1:15" s="49" customFormat="1"/>
+    <row r="48" spans="1:15" s="49" customFormat="1"/>
+    <row r="49" s="49" customFormat="1"/>
+    <row r="50" s="49" customFormat="1"/>
+    <row r="51" s="49" customFormat="1"/>
+    <row r="52" s="49" customFormat="1"/>
+    <row r="53" s="49" customFormat="1"/>
+    <row r="54" s="49" customFormat="1"/>
+    <row r="55" s="49" customFormat="1"/>
+    <row r="56" s="49" customFormat="1"/>
+    <row r="57" s="49" customFormat="1"/>
+    <row r="58" s="49" customFormat="1"/>
+    <row r="59" s="49" customFormat="1"/>
+    <row r="60" s="49" customFormat="1"/>
+    <row r="61" s="49" customFormat="1"/>
+    <row r="62" s="49" customFormat="1"/>
+    <row r="63" s="49" customFormat="1"/>
+    <row r="64" s="49" customFormat="1"/>
+    <row r="65" s="49" customFormat="1"/>
+    <row r="66" s="49" customFormat="1"/>
+    <row r="67" s="49" customFormat="1"/>
+    <row r="68" s="49" customFormat="1"/>
+    <row r="69" s="49" customFormat="1"/>
+    <row r="70" s="49" customFormat="1"/>
+    <row r="71" s="49" customFormat="1"/>
+    <row r="72" s="49" customFormat="1"/>
+    <row r="73" s="49" customFormat="1"/>
+    <row r="74" s="49" customFormat="1"/>
+    <row r="75" s="49" customFormat="1"/>
+    <row r="76" s="49" customFormat="1"/>
+    <row r="77" s="49" customFormat="1"/>
+    <row r="78" s="49" customFormat="1"/>
+    <row r="79" s="49" customFormat="1"/>
+    <row r="80" s="49" customFormat="1"/>
+    <row r="81" s="49" customFormat="1"/>
+    <row r="82" s="49" customFormat="1"/>
+    <row r="83" s="49" customFormat="1"/>
+    <row r="84" s="49" customFormat="1"/>
+    <row r="85" s="49" customFormat="1"/>
+    <row r="86" s="49" customFormat="1"/>
+    <row r="87" s="49" customFormat="1"/>
+    <row r="88" s="49" customFormat="1"/>
+    <row r="89" s="49" customFormat="1"/>
+    <row r="90" s="49" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R90"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="51" customWidth="1"/>
+    <col min="2" max="4" width="2.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="51" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="8" style="51" customWidth="1"/>
+    <col min="15" max="15" width="38" style="51" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="14.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
+      <c r="A6" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="92"/>
+    </row>
+    <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="90" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>業務予算マスター財務システム用</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
+      <c r="A9" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A10" s="89"/>
+      <c r="B10" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
+      <c r="A11" s="60">
+        <f t="shared" ref="A11:A17" si="0">ROW()-10</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="54">
+        <v>1</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A12" s="62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="57">
+        <v>2</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A13" s="62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A14" s="62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="57">
+        <v>3</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="62">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="57">
+        <v>9</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:18" s="45" customFormat="1">
+      <c r="A16" s="62">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" s="45" customFormat="1">
+      <c r="A17" s="62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+    </row>
+    <row r="18" spans="1:18" s="45" customFormat="1">
+      <c r="A18" s="62">
+        <v>8</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+    </row>
+    <row r="19" spans="1:18" s="45" customFormat="1">
+      <c r="A19" s="62">
+        <f>ROW()-10</f>
+        <v>9</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+    </row>
+    <row r="20" spans="1:18" s="45" customFormat="1">
+      <c r="A20" s="62">
+        <v>8</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="57"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="1:18" s="45" customFormat="1">
+      <c r="A21" s="62">
+        <f>ROW()-10</f>
+        <v>11</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
+    </row>
+    <row r="22" spans="1:18" s="45" customFormat="1">
+      <c r="A22" s="62">
+        <f>ROW()-10</f>
+        <v>12</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="57"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1">
+      <c r="A23" s="62">
+        <f>ROW()-10</f>
+        <v>13</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1">
+      <c r="A24" s="62">
+        <f>ROW()-10</f>
+        <v>14</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:18" s="45" customFormat="1">
+      <c r="A25" s="62">
+        <f>ROW()-10</f>
+        <v>15</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" s="45" customFormat="1">
+      <c r="A26" s="62">
+        <f t="shared" ref="A26:A35" si="1">ROW()-10</f>
+        <v>16</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="62">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" s="45" customFormat="1">
+      <c r="A28" s="62">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="62">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
@@ -26456,7 +32096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
@@ -26473,7 +32113,7 @@
     <col min="5" max="5" width="2.375" style="51" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.875" style="51" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.125" style="51" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="51" customWidth="1"/>
     <col min="12" max="12" width="7.875" style="51" bestFit="1" customWidth="1"/>
@@ -26514,104 +32154,104 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>業務予算マスター財務システム用</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+        <v>中京Cデータ税込</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -26623,14 +32263,14 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="54">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>69</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="56"/>
@@ -26649,14 +32289,14 @@
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="58" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="57" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I12" s="57">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="J12" s="57"/>
       <c r="K12" s="59"/>
@@ -26678,14 +32318,14 @@
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I13" s="74">
+        <v>255</v>
       </c>
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
@@ -26704,14 +32344,14 @@
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
       <c r="F14" s="58" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="57">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J14" s="57"/>
       <c r="K14" s="59"/>
@@ -26728,18 +32368,16 @@
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
-        <v>133</v>
-      </c>
+      <c r="E15" s="57"/>
       <c r="F15" s="59" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="57">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="59"/>
@@ -26758,11 +32396,11 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="59" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="57" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="I16" s="74" t="s">
         <v>69</v>
@@ -26784,14 +32422,14 @@
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="59" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I17" s="74">
+        <v>255</v>
       </c>
       <c r="J17" s="57"/>
       <c r="K17" s="59"/>
@@ -26812,14 +32450,14 @@
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
       <c r="F18" s="59" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I18" s="74">
+        <v>255</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="59"/>
@@ -26841,14 +32479,14 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="59" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I19" s="74">
+        <v>255</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
@@ -26869,14 +32507,14 @@
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="59" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I20" s="74">
+        <v>255</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="59"/>
@@ -26898,14 +32536,14 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="59" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G21" s="59"/>
       <c r="H21" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I21" s="74">
+        <v>255</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
@@ -26925,14 +32563,14 @@
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
       <c r="F22" s="59" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I22" s="74">
+        <v>255</v>
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
@@ -26952,11 +32590,11 @@
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="57" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="I23" s="74" t="s">
         <v>69</v>
@@ -26979,11 +32617,11 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="59" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="57" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I24" s="74" t="s">
         <v>69</v>
@@ -27006,11 +32644,11 @@
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="59" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G25" s="59"/>
       <c r="H25" s="57" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>69</v>
@@ -27033,14 +32671,14 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="59" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I26" s="74">
+        <v>255</v>
       </c>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
@@ -27060,14 +32698,14 @@
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="59" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="G27" s="59"/>
       <c r="H27" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I27" s="74">
+        <v>255</v>
       </c>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
@@ -27086,14 +32724,14 @@
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="59" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I28" s="74">
+        <v>255</v>
       </c>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
@@ -27112,14 +32750,14 @@
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="59" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="I29" s="74">
+        <v>255</v>
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
@@ -27137,10 +32775,16 @@
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="59"/>
+      <c r="F30" s="59" t="s">
+        <v>154</v>
+      </c>
       <c r="G30" s="59"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="H30" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="74">
+        <v>255</v>
+      </c>
       <c r="J30" s="57"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
@@ -27157,10 +32801,16 @@
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
-      <c r="F31" s="59"/>
+      <c r="F31" s="59" t="s">
+        <v>155</v>
+      </c>
       <c r="G31" s="59"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="74">
+        <v>255</v>
+      </c>
       <c r="J31" s="57"/>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
@@ -27177,10 +32827,16 @@
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
-      <c r="F32" s="59"/>
+      <c r="F32" s="59" t="s">
+        <v>156</v>
+      </c>
       <c r="G32" s="59"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="H32" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="74">
+        <v>255</v>
+      </c>
       <c r="J32" s="57"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
@@ -27197,10 +32853,16 @@
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
-      <c r="F33" s="59"/>
+      <c r="F33" s="59" t="s">
+        <v>157</v>
+      </c>
       <c r="G33" s="59"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="74">
+        <v>255</v>
+      </c>
       <c r="J33" s="57"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
@@ -27217,10 +32879,16 @@
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
-      <c r="F34" s="59"/>
+      <c r="F34" s="59" t="s">
+        <v>158</v>
+      </c>
       <c r="G34" s="59"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="H34" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="74">
+        <v>255</v>
+      </c>
       <c r="J34" s="57"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
@@ -27292,6 +32960,1004 @@
       <c r="G38" s="59"/>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+    </row>
+    <row r="39" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+    </row>
+    <row r="40" spans="1:15" s="49" customFormat="1"/>
+    <row r="41" spans="1:15" s="49" customFormat="1"/>
+    <row r="42" spans="1:15" s="49" customFormat="1"/>
+    <row r="43" spans="1:15" s="49" customFormat="1"/>
+    <row r="44" spans="1:15" s="49" customFormat="1"/>
+    <row r="45" spans="1:15" s="49" customFormat="1"/>
+    <row r="46" spans="1:15" s="49" customFormat="1"/>
+    <row r="47" spans="1:15" s="49" customFormat="1"/>
+    <row r="48" spans="1:15" s="49" customFormat="1"/>
+    <row r="49" s="49" customFormat="1"/>
+    <row r="50" s="49" customFormat="1"/>
+    <row r="51" s="49" customFormat="1"/>
+    <row r="52" s="49" customFormat="1"/>
+    <row r="53" s="49" customFormat="1"/>
+    <row r="54" s="49" customFormat="1"/>
+    <row r="55" s="49" customFormat="1"/>
+    <row r="56" s="49" customFormat="1"/>
+    <row r="57" s="49" customFormat="1"/>
+    <row r="58" s="49" customFormat="1"/>
+    <row r="59" s="49" customFormat="1"/>
+    <row r="60" s="49" customFormat="1"/>
+    <row r="61" s="49" customFormat="1"/>
+    <row r="62" s="49" customFormat="1"/>
+    <row r="63" s="49" customFormat="1"/>
+    <row r="64" s="49" customFormat="1"/>
+    <row r="65" s="49" customFormat="1"/>
+    <row r="66" s="49" customFormat="1"/>
+    <row r="67" s="49" customFormat="1"/>
+    <row r="68" s="49" customFormat="1"/>
+    <row r="69" s="49" customFormat="1"/>
+    <row r="70" s="49" customFormat="1"/>
+    <row r="71" s="49" customFormat="1"/>
+    <row r="72" s="49" customFormat="1"/>
+    <row r="73" s="49" customFormat="1"/>
+    <row r="74" s="49" customFormat="1"/>
+    <row r="75" s="49" customFormat="1"/>
+    <row r="76" s="49" customFormat="1"/>
+    <row r="77" s="49" customFormat="1"/>
+    <row r="78" s="49" customFormat="1"/>
+    <row r="79" s="49" customFormat="1"/>
+    <row r="80" s="49" customFormat="1"/>
+    <row r="81" s="49" customFormat="1"/>
+    <row r="82" s="49" customFormat="1"/>
+    <row r="83" s="49" customFormat="1"/>
+    <row r="84" s="49" customFormat="1"/>
+    <row r="85" s="49" customFormat="1"/>
+    <row r="86" s="49" customFormat="1"/>
+    <row r="87" s="49" customFormat="1"/>
+    <row r="88" s="49" customFormat="1"/>
+    <row r="89" s="49" customFormat="1"/>
+    <row r="90" s="49" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R90"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="51" customWidth="1"/>
+    <col min="2" max="4" width="2.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="51" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="8" style="51" customWidth="1"/>
+    <col min="15" max="15" width="38" style="51" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="14.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
+      <c r="A6" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="92"/>
+    </row>
+    <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="90" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>中京Cデータ税込BK</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
+      <c r="A9" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A10" s="89"/>
+      <c r="B10" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
+      <c r="A11" s="60">
+        <f t="shared" ref="A11:A17" si="0">ROW()-10</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A12" s="62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="57">
+        <v>255</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A13" s="62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="74">
+        <v>255</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="45" customFormat="1" ht="14.25">
+      <c r="A14" s="62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="62">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:18" s="45" customFormat="1">
+      <c r="A16" s="62">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" s="45" customFormat="1">
+      <c r="A17" s="62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="74">
+        <v>255</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+    </row>
+    <row r="18" spans="1:18" s="45" customFormat="1">
+      <c r="A18" s="62">
+        <v>8</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="74">
+        <v>255</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+    </row>
+    <row r="19" spans="1:18" s="45" customFormat="1">
+      <c r="A19" s="62">
+        <f>ROW()-10</f>
+        <v>9</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="74">
+        <v>255</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+    </row>
+    <row r="20" spans="1:18" s="45" customFormat="1">
+      <c r="A20" s="62">
+        <v>8</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="74">
+        <v>255</v>
+      </c>
+      <c r="J20" s="57"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="1:18" s="45" customFormat="1">
+      <c r="A21" s="62">
+        <f>ROW()-10</f>
+        <v>11</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="74">
+        <v>255</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
+    </row>
+    <row r="22" spans="1:18" s="45" customFormat="1">
+      <c r="A22" s="62">
+        <f>ROW()-10</f>
+        <v>12</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="74">
+        <v>255</v>
+      </c>
+      <c r="J22" s="57"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1">
+      <c r="A23" s="62">
+        <f>ROW()-10</f>
+        <v>13</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1">
+      <c r="A24" s="62">
+        <f>ROW()-10</f>
+        <v>14</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:18" s="45" customFormat="1">
+      <c r="A25" s="62">
+        <f>ROW()-10</f>
+        <v>15</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" s="45" customFormat="1">
+      <c r="A26" s="62">
+        <f t="shared" ref="A26:A38" si="1">ROW()-10</f>
+        <v>16</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="74">
+        <v>255</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="62">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="74">
+        <v>255</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" s="45" customFormat="1">
+      <c r="A28" s="62">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="74">
+        <v>255</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="62">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="74">
+        <v>255</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="62">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="74">
+        <v>255</v>
+      </c>
+      <c r="J30" s="57"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="74">
+        <v>255</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="62">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="74">
+        <v>255</v>
+      </c>
+      <c r="J32" s="57"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="62">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="74">
+        <v>255</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+    </row>
+    <row r="34" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="62">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="74">
+        <v>255</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+    </row>
+    <row r="35" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="62">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="59"/>
+      <c r="H35" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="74">
+        <v>255</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+    </row>
+    <row r="36" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="62">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+    </row>
+    <row r="37" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="62">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="57">
+        <v>1</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+    </row>
+    <row r="38" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="62">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="57">
+        <v>7</v>
+      </c>
       <c r="J38" s="57"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
@@ -27710,80 +34376,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>給与マスター</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -27796,18 +34462,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -28501,6 +35167,12 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -28510,12 +35182,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -28583,80 +35249,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>社員マスター</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -28669,18 +35335,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -29344,6 +36010,12 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -29353,12 +36025,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -29426,80 +36092,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>給振マスター</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -29512,18 +36178,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -30239,6 +36905,12 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -30248,12 +36920,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -30321,80 +36987,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>外注費テーブル</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -30407,18 +37073,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -31386,6 +38052,12 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -31395,12 +38067,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -31468,82 +38134,82 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>業務伝票テーブル前期分</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="83"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>1</v>
       </c>
@@ -31556,18 +38222,18 @@
       <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -32535,6 +39201,12 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -32544,12 +39216,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -32618,80 +39284,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属課テーブル財務システム用</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -32704,18 +39370,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -33459,80 +40125,80 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="14.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:18" s="36" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="90" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>所属店テーブル財務システム用</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:18" s="38" customFormat="1" ht="14.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="52" t="s">
         <v>1</v>
       </c>
@@ -33545,18 +40211,18 @@
       <c r="E10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="89"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="15" thickTop="1">
       <c r="A11" s="60">
@@ -34218,12 +40884,6 @@
     <row r="90" s="49" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
@@ -34233,6 +40893,12 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="0.82" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
